--- a/Imagenes/Libro-Drawio/GraficaTemperaturaEnrutador.xlsx
+++ b/Imagenes/Libro-Drawio/GraficaTemperaturaEnrutador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\OneDrive\Escritorio\ModComT\ModuloComunicacion\Imagenes\Libro-Drawio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a3ac2fae305033/Escritorio/ModComT/ModuloComunicacion/Imagenes/Libro-Drawio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88F7A8-388D-4D86-A32C-FE909A1E7F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88F7A8-388D-4D86-A32C-FE909A1E7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{02395184-74F8-4DA9-B3A5-42E5026FFEB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02395184-74F8-4DA9-B3A5-42E5026FFEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
